--- a/doc/_modelos/modelo-folha-de-pagamento-contaazul-r.xlsx
+++ b/doc/_modelos/modelo-folha-de-pagamento-contaazul-r.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ASS\SGE\trunk\doc\_modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaque\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>INSS</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">INSS - a partir de </t>
   </si>
   <si>
-    <t>Isaque Marinho Ribeiro</t>
+    <t>Serviços Gerais</t>
   </si>
 </sst>
 </file>
@@ -3223,7 +3223,7 @@
   <dimension ref="A1:G539"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -3346,23 +3346,23 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="D10" s="7">
         <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
-        <v>56.22</v>
+        <v>55.8</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>84.33</v>
+        <v>83.7</v>
       </c>
       <c r="F10" s="6">
         <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>140.55000000000001</v>
+        <v>139.5</v>
       </c>
       <c r="G10" s="6">
         <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>796.45</v>
+        <v>790.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,31 +3501,24 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6">
-        <f>7*937</f>
-        <v>6559</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="9">
         <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
-        <v>393.53999999999996</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
         <f>IF(C16&lt;=$B$5,C16*$C$5,C16*$C$6)</f>
-        <v>590.30999999999995</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
         <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>983.84999999999991</v>
+        <v>0</v>
       </c>
       <c r="G16" s="10">
         <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>5575.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4099,7 +4092,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4307,7 +4300,9 @@
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>

--- a/doc/_modelos/modelo-folha-de-pagamento-contaazul-r.xlsx
+++ b/doc/_modelos/modelo-folha-de-pagamento-contaazul-r.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaque\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anselmo.massad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA3AC8-5A53-42D7-A1BD-0B310F618206}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo" sheetId="1" r:id="rId1"/>
-    <sheet name="Cadastro" sheetId="2" r:id="rId2"/>
-    <sheet name="Instruções" sheetId="3" r:id="rId3"/>
+    <sheet name="IRPF e INSS" sheetId="5" r:id="rId2"/>
+    <sheet name="Cadastro Deptos" sheetId="2" r:id="rId3"/>
+    <sheet name="Instruções" sheetId="3" r:id="rId4"/>
+    <sheet name="Sua empresa além da planilha" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>INSS</t>
   </si>
@@ -88,16 +91,7 @@
     <t>VALE TRANSPORTE</t>
   </si>
   <si>
-    <t>TOTAL DE DESCONTOS</t>
-  </si>
-  <si>
     <t>SALÁRIO LÍQUIDO</t>
-  </si>
-  <si>
-    <t>PARÂMETRO</t>
-  </si>
-  <si>
-    <t>VALOR</t>
   </si>
   <si>
     <t>IMPOSTOS/CUSTO</t>
@@ -109,27 +103,58 @@
     <t>DEPARTAMENTOS</t>
   </si>
   <si>
-    <t xml:space="preserve">INSS - até </t>
+    <t>IRPF</t>
   </si>
   <si>
-    <t xml:space="preserve">INSS - a partir de </t>
+    <t>Mínimo</t>
   </si>
   <si>
-    <t>Serviços Gerais</t>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Alíquota</t>
+  </si>
+  <si>
+    <t>Parcela a deduzir</t>
+  </si>
+  <si>
+    <t>13º + Férias</t>
+  </si>
+  <si>
+    <t>IRPF (13 + Ferias)</t>
+  </si>
+  <si>
+    <t>TOTAL DESCONTOS</t>
+  </si>
+  <si>
+    <t>PERCENTUAL</t>
+  </si>
+  <si>
+    <t>VALOR MÁXIMO</t>
+  </si>
+  <si>
+    <t>Base de cálculo INSS 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,6 +255,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -263,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -295,100 +340,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="13" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{24791733-FE93-4966-9CE7-B4655A71372B}"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -454,6 +549,48 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -464,13 +601,187 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FF385A7B"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="12" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF385A7B"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -490,6 +801,12 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -513,7 +830,85 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -779,15 +1174,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
-    <tableStyle name="ContaAzul-M1" pivot="0" count="8">
-      <tableStyleElement type="wholeTable" dxfId="19"/>
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="totalRow" dxfId="17"/>
-      <tableStyleElement type="firstColumn" dxfId="16"/>
-      <tableStyleElement type="lastColumn" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+    <tableStyle name="ContaAzul-M1" pivot="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -816,15 +1211,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>658761</xdr:colOff>
+      <xdr:colOff>656979</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>655200</xdr:rowOff>
+      <xdr:rowOff>655199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -840,21 +1235,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="658761" cy="655200"/>
+          <a:off x="47624" y="45844"/>
+          <a:ext cx="609355" cy="609355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -865,14 +1254,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>733426</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>790576</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
@@ -889,9 +1278,9 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11302366" y="2249805"/>
-          <a:ext cx="1424940" cy="1192529"/>
-          <a:chOff x="10266045" y="1462921"/>
+          <a:off x="13154026" y="2257425"/>
+          <a:ext cx="1428750" cy="1200149"/>
+          <a:chOff x="15699105" y="1462921"/>
           <a:chExt cx="2952750" cy="819149"/>
         </a:xfrm>
       </xdr:grpSpPr>
@@ -908,7 +1297,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10266045" y="1462921"/>
+            <a:off x="15699105" y="1462921"/>
             <a:ext cx="2952750" cy="819149"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
@@ -1015,7 +1404,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="10380346" y="1685778"/>
+            <a:off x="15872461" y="1685778"/>
             <a:ext cx="2705099" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1056,7 +1445,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1071,10 +1460,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5391149" y="891540"/>
-          <a:ext cx="2998471" cy="1062990"/>
+          <a:off x="4981574" y="895350"/>
+          <a:ext cx="2724151" cy="1257300"/>
           <a:chOff x="10620375" y="1495426"/>
-          <a:chExt cx="2952750" cy="1171388"/>
+          <a:chExt cx="2952750" cy="1380564"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1091,7 +1480,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="10620375" y="1495426"/>
-            <a:ext cx="2952750" cy="1171388"/>
+            <a:ext cx="2952750" cy="1380564"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
             <a:avLst>
@@ -1178,7 +1567,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Altere os percentuais de impostos caso necessite.</a:t>
+              <a:t>Altere o valor máximo e percentual de vale transporte</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1258,14 +1647,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>178458</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266695</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1282,10 +1671,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11311890" y="4013835"/>
-          <a:ext cx="1583055" cy="1123950"/>
-          <a:chOff x="10567332" y="1495426"/>
-          <a:chExt cx="2952750" cy="819150"/>
+          <a:off x="13113408" y="4029075"/>
+          <a:ext cx="1802737" cy="1123950"/>
+          <a:chOff x="15419288" y="1495426"/>
+          <a:chExt cx="2952748" cy="819150"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1301,8 +1690,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10567332" y="1495426"/>
-            <a:ext cx="2952750" cy="819150"/>
+            <a:off x="15419288" y="1495426"/>
+            <a:ext cx="2952748" cy="819150"/>
           </a:xfrm>
           <a:prstGeom prst="borderCallout1">
             <a:avLst>
@@ -1455,7 +1844,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipH="1">
-            <a:off x="10734676" y="1738554"/>
+            <a:off x="15571059" y="1738554"/>
             <a:ext cx="2705100" cy="0"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -1488,13 +1877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>256564</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:colOff>1296010</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
@@ -1512,22 +1901,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="7534275"/>
-          <a:ext cx="1171575" cy="180975"/>
+          <a:off x="256564" y="7534275"/>
+          <a:ext cx="1039446" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1562,15 +1944,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76383</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133166</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,16 +1968,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="18395"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="133350" y="6134283"/>
-          <a:ext cx="6886575" cy="971183"/>
+          <a:off x="0" y="5772333"/>
+          <a:ext cx="5619750" cy="971183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1636,44 +2017,172 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>430200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>655200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9">
+        <xdr:cNvPr id="6" name="Imagem 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC22867-D3C4-4B58-BCAA-CAA8F7E119DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="18258"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3524250"/>
+          <a:ext cx="5629275" cy="971183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8152</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209398</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492A4A11-306F-44DD-8644-DA60F85CCB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="236752" y="4924425"/>
+          <a:ext cx="1039446" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428379</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>655199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E61EC546-4873-4EB0-A148-B91955B85FC7}"/>
             </a:ext>
           </a:extLst>
-        </a:blip>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="658800" cy="655200"/>
+          <a:off x="47624" y="45844"/>
+          <a:ext cx="609355" cy="609355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,6 +2191,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1708,7 +2222,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3263265" y="3531870"/>
+          <a:off x="3267075" y="3543300"/>
           <a:ext cx="2952750" cy="819150"/>
           <a:chOff x="10620375" y="1495426"/>
           <a:chExt cx="2952750" cy="819150"/>
@@ -1914,20 +2428,20 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>66308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Imagem 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
@@ -1938,16 +2452,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="18949"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="123825" y="6515100"/>
-          <a:ext cx="6886575" cy="971183"/>
+          <a:off x="0" y="6057900"/>
+          <a:ext cx="5581650" cy="971183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,14 +2494,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18439</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:colOff>1057885</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
@@ -2006,95 +2519,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="7915275"/>
-          <a:ext cx="1171575" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>75833</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="133350" y="9782175"/>
-          <a:ext cx="6886575" cy="971183"/>
+          <a:off x="247039" y="7458075"/>
+          <a:ext cx="1039446" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,22 +2562,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>45844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>658761</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428379</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>655200</xdr:rowOff>
+      <xdr:rowOff>655199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="13" name="Imagem 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64E7B997-99C2-4F53-8574-F39DD240875A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,25 +2586,91 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="658761" cy="655200"/>
+          <a:off x="47624" y="45844"/>
+          <a:ext cx="609355" cy="609355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>75833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="19364"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9782175"/>
+          <a:ext cx="5553075" cy="971183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2788,13 +3287,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>256564</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>610210</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
@@ -2812,22 +3311,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="11582400"/>
-          <a:ext cx="1171575" cy="180975"/>
+          <a:off x="256564" y="11182350"/>
+          <a:ext cx="1039446" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2859,27 +3351,959 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>656979</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>655199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB369B4-76BE-4FAA-B8E2-27D560B1E809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47624" y="45844"/>
+          <a:ext cx="609355" cy="609355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342590</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30280</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>289205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B1BD3D-7300-47C2-BAC4-D2CAAC52E8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342590" y="14030325"/>
+          <a:ext cx="1059290" cy="184430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6762750" cy="9982199"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658B3ED1-7CC0-4FE7-8319-64D6F0C5EA00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="914400"/>
+          <a:ext cx="6762750" cy="9982199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="180000" tIns="180000" rIns="180000" bIns="180000" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="4983BB"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sua empresa além da planilha</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="4983BB"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="4983BB"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Conheça um novo caminho para turbinar sua empresa. ContaAzul é um sistema de gestão 100% online que vai ajudar você a controlar sua empresa com segurança e rapidez.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="4983BB"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>O que você ganha evoluindo das planilhas para o ContaAzul:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Todos os dados em um só lugar para ganhar tempo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Quantas planilhas você usa na sua empresa? Três? Sete? Dez? Como manter todas atualizadas? Quanto tempo você demora para se certificar disso? Todo esse trabalho pode se poupado com o ContaAzul e com isso ganhar tempo para se dedicar ao que importa na sua empresa.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Tenha as informações da sua empresa sempre atualizadas</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>O ContaAzul é um sistema inteligente que automaticamente faz a leitura do seu extrato, conectado ao seu banco, e ajuda a ter uma visão real e atualizada do seu fluxo de caixa. As vendas registradas já viram boletos e notas fiscais para controlar as entradas e saídas de dinheiro da sua empresa. Gastos no cartão de crédito e outras contas também são consolidadas na visão geral. Com planilhas é fácil perder a noção de quando foi a última atualização dos dados e se perde muito tempo alimentando e verificando as informações.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Dados seguros e Backup automático para você ficar tranquilo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Quantas cópias de backup das suas planilhas você guarda? Com que frequência essas cópias são atualizadas? Já pensou dor de cabeça caso o seu computador quebre ou pegue um vírus? Com o ContaAzul, você garante que os dados estão sempre atualizados onde quer que você esteja acessando. Com backup na nuvem criptografado, você tem segurança com servidores modernos e padrões de segurança usados por bancos online.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Colaboração nos resultados da sua empresa</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>No ContaAzul você vê a colaboração de cada funcionário para o faturamento e o Fluxo de Caixa. Mais de um funcionário consegue editar os dados em tempo real, e de qualquer lugar do mundo. Mesmo nas suas férias, você pode acessar o sistema e conferir as últimas vendas dos seus funcionários sem pedir cópia das planilhas por email.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Suporte de primeira sempre pronto para te ajudar</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="457200" marR="0" lvl="1" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>O ContaAzul é um sistema online, ou seja, você sempre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>tem a versão mais recente para usar. Você conta com suporte e as</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> explicações detalhadas para resolver qualquer dúvida</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="414042"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="414042"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106812</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>48977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A14419-34E6-46CD-B812-27DD6AE1214F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11506201"/>
+          <a:ext cx="7422012" cy="2011126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>427812</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57590</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2610A0A-56A2-417F-934F-14F19F56546C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2256612" y="10515600"/>
+          <a:ext cx="2677778" cy="504756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>656979</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>655199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24B22B4-CD66-4A77-ABF8-CBE45D2C340D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47624" y="45844"/>
+          <a:ext cx="609355" cy="609355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A8:G16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A8:G16"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="NOME" dataDxfId="9"/>
-    <tableColumn id="2" name="DEPARTAMENTO" dataDxfId="8"/>
-    <tableColumn id="3" name="SALÁRIO BRUTO" dataDxfId="7"/>
-    <tableColumn id="4" name="VALE TRANSPORTE" dataDxfId="6">
-      <calculatedColumnFormula>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table5" displayName="Table5" ref="A8:J16" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A8:J16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NOME" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DEPARTAMENTO" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SALÁRIO BRUTO" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="VALE TRANSPORTE" dataDxfId="0">
+      <calculatedColumnFormula>IF(C9*$C$4&gt;$B$4,$B$4,C9*$C$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="INSS" dataDxfId="5">
-      <calculatedColumnFormula>IF(C9&lt;=$B$5,C9*$C$5,C9*$C$6)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INSS" dataDxfId="20">
+      <calculatedColumnFormula>IF(C9&lt;='IRPF e INSS'!$C$7,C9*'IRPF e INSS'!$D$7,IF(C9&lt;='IRPF e INSS'!$C$8,C9*'IRPF e INSS'!$D$8,IF(C9&lt;='IRPF e INSS'!$C$9,C9*'IRPF e INSS'!$D$9,IF(C9&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="TOTAL DE DESCONTOS" dataDxfId="4">
-      <calculatedColumnFormula>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{063AD501-024C-4221-8E7A-1DFAD5E1E2D6}" name="IRPF" dataDxfId="19" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(C9-E9&lt;='IRPF e INSS'!$G$7,0,IF(C9-E9&lt;='IRPF e INSS'!$G$8,(C9-E9)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C9-E9&lt;='IRPF e INSS'!$G$9,(C9-E9)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C9-E9&lt;='IRPF e INSS'!$G$10,(C9-E9)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C9-E9&gt;='IRPF e INSS'!$F$11,(C9-E9)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="SALÁRIO LÍQUIDO" dataDxfId="3">
-      <calculatedColumnFormula>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="TOTAL DESCONTOS" dataDxfId="18" dataCellStyle="Moeda">
+      <calculatedColumnFormula>D9+E9+F9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SALÁRIO LÍQUIDO" dataDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>C9-G9</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{8EF53924-7D97-4B19-B4BE-C1E29ADC506E}" name="13º + Férias" dataDxfId="16" dataCellStyle="Moeda">
+      <calculatedColumnFormula>C9+C9*0.333</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{3A73A816-A7F7-41D5-82D6-F007A2E45083}" name="IRPF (13 + Ferias)" dataDxfId="15" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF(I9-E9&lt;='IRPF e INSS'!$G$7,0,IF(I9-E9&lt;='IRPF e INSS'!$G$8,(I9-E9)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I9-E9&lt;='IRPF e INSS'!$G$9,(I9-E9)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I9-E9&lt;='IRPF e INSS'!$G$10,(I9-E9)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I9-E9&gt;='IRPF e INSS'!$F$11,(I9-E9)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2887,12 +4311,39 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="B7:B15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="B7:B15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB2251E2-861F-4C02-A061-A14802D2DA76}" name="Tabela23" displayName="Tabela23" ref="B6:D10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B6:D10" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ECBBE67B-C922-4086-B6D7-D01F437C688A}" name="Mínimo" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{155E8E11-7641-4606-8E96-ACD44EC04D0D}" name="Máximo" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{C2189899-7A08-4076-A40C-92F54B3D0C0C}" name="Alíquota" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3BC8FA7C-6F60-4AFD-8447-C6AA68B33157}" name="Tabela234" displayName="Tabela234" ref="F6:I11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="F6:I11" xr:uid="{ED4A94B9-6196-42D1-ABCD-A7FE864B2134}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{40BD3B24-726C-4659-BBBE-CB62A192D997}" name="Mínimo" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C25CDFEC-F076-4CFE-8EEB-92A07FA2D3ED}" name="Máximo" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{C0D7B727-12F5-46DE-B267-234D892D15ED}" name="Alíquota" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{87AD1CF1-323C-4B21-A7C1-55516447F4D8}" name="Parcela a deduzir" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela2" displayName="Tabela2" ref="B7:B15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B7:B15" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="DEPARTAMENTOS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DEPARTAMENTOS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="ContaAzul-M1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3219,76 +4670,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G539"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K539"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.19921875" customWidth="1"/>
-    <col min="10" max="11" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="19">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C4" s="20">
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="21">
-        <v>900</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="21">
-        <v>900</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -3304,14 +4744,23 @@
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -3319,26 +4768,38 @@
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="D9" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
-        <v>51</v>
+        <f t="shared" ref="D9:D16" si="0">IF(C9*$C$4&gt;$B$4,$B$4,C9*$C$4)</f>
+        <v>57.599999999999994</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E15" si="0">IF(C9&lt;=$B$5,C9*$C$5,C9*$C$6)</f>
-        <v>68</v>
-      </c>
-      <c r="F9" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>119</v>
+        <f>IF(C9&lt;='IRPF e INSS'!$C$7,C9*'IRPF e INSS'!$D$7,IF(C9&lt;='IRPF e INSS'!$C$8,C9*'IRPF e INSS'!$D$8,IF(C9&lt;='IRPF e INSS'!$C$9,C9*'IRPF e INSS'!$D$9,IF(C9&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>76.8</v>
+      </c>
+      <c r="F9" s="7">
+        <f>IF(C9-E9&lt;='IRPF e INSS'!$G$7,0,IF(C9-E9&lt;='IRPF e INSS'!$G$8,(C9-E9)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C9-E9&lt;='IRPF e INSS'!$G$9,(C9-E9)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C9-E9&lt;='IRPF e INSS'!$G$10,(C9-E9)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C9-E9&gt;='IRPF e INSS'!$F$11,(C9-E9)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>731</v>
+        <f t="shared" ref="G9:G16" si="1">D9+E9+F9</f>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ref="H9:H16" si="2">C9-G9</f>
+        <v>825.6</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I16" si="3">C9+C9*0.333</f>
+        <v>1279.68</v>
+      </c>
+      <c r="J9" s="7">
+        <f>IF(I9-E9&lt;='IRPF e INSS'!$G$7,0,IF(I9-E9&lt;='IRPF e INSS'!$G$8,(I9-E9)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I9-E9&lt;='IRPF e INSS'!$G$9,(I9-E9)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I9-E9&lt;='IRPF e INSS'!$G$10,(I9-E9)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I9-E9&gt;='IRPF e INSS'!$F$11,(I9-E9)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E9</f>
+        <v>24.215999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -3346,26 +4807,42 @@
         <v>9</v>
       </c>
       <c r="C10" s="6">
-        <v>930</v>
+        <v>9000</v>
       </c>
       <c r="D10" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
-        <v>55.8</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>83.7</v>
-      </c>
-      <c r="F10" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>139.5</v>
+        <f>IF(C10&lt;='IRPF e INSS'!$C$7,C10*'IRPF e INSS'!$D$7,IF(C10&lt;='IRPF e INSS'!$C$8,C10*'IRPF e INSS'!$D$8,IF(C10&lt;='IRPF e INSS'!$C$9,C10*'IRPF e INSS'!$D$9,IF(C10&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>1171.8399999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <f>IF(C10-E10&lt;='IRPF e INSS'!$G$7,0,IF(C10-E10&lt;='IRPF e INSS'!$G$8,(C10-E10)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C10-E10&lt;='IRPF e INSS'!$G$9,(C10-E10)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C10-E10&lt;='IRPF e INSS'!$G$10,(C10-E10)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C10-E10&gt;='IRPF e INSS'!$F$11,(C10-E10)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>1283.384</v>
       </c>
       <c r="G10" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>790.5</v>
+        <f t="shared" si="1"/>
+        <v>2955.2240000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>6044.7759999999998</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>11997</v>
+      </c>
+      <c r="J10" s="7">
+        <f>IF(I10-E10&lt;='IRPF e INSS'!$G$7,0,IF(I10-E10&lt;='IRPF e INSS'!$G$8,(I10-E10)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I10-E10&lt;='IRPF e INSS'!$G$9,(I10-E10)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I10-E10&lt;='IRPF e INSS'!$G$10,(I10-E10)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I10-E10&gt;='IRPF e INSS'!$F$11,(I10-E10)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E10</f>
+        <v>3279.3990000000003</v>
+      </c>
+      <c r="K10" s="2">
+        <f>Table5[[#This Row],[13º + Férias]]*0.275-Tabela23[[#This Row],[Alíquota]]</f>
+        <v>2127.335</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -3376,23 +4853,35 @@
         <v>960</v>
       </c>
       <c r="D11" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
+        <f t="shared" si="0"/>
         <v>57.599999999999994</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="F11" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>144</v>
+        <f>IF(C11&lt;='IRPF e INSS'!$C$7,C11*'IRPF e INSS'!$D$7,IF(C11&lt;='IRPF e INSS'!$C$8,C11*'IRPF e INSS'!$D$8,IF(C11&lt;='IRPF e INSS'!$C$9,C11*'IRPF e INSS'!$D$9,IF(C11&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>76.8</v>
+      </c>
+      <c r="F11" s="7">
+        <f>IF(C11-E11&lt;='IRPF e INSS'!$G$7,0,IF(C11-E11&lt;='IRPF e INSS'!$G$8,(C11-E11)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C11-E11&lt;='IRPF e INSS'!$G$9,(C11-E11)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C11-E11&lt;='IRPF e INSS'!$G$10,(C11-E11)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C11-E11&gt;='IRPF e INSS'!$F$11,(C11-E11)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>0</v>
       </c>
       <c r="G11" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>816</v>
+        <f t="shared" si="1"/>
+        <v>134.39999999999998</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>825.6</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>1279.68</v>
+      </c>
+      <c r="J11" s="7">
+        <f>IF(I11-E11&lt;='IRPF e INSS'!$G$7,0,IF(I11-E11&lt;='IRPF e INSS'!$G$8,(I11-E11)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I11-E11&lt;='IRPF e INSS'!$G$9,(I11-E11)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I11-E11&lt;='IRPF e INSS'!$G$10,(I11-E11)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I11-E11&gt;='IRPF e INSS'!$F$11,(I11-E11)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E11</f>
+        <v>24.215999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -3403,23 +4892,35 @@
         <v>840</v>
       </c>
       <c r="D12" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
+        <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(C12&lt;='IRPF e INSS'!$C$7,C12*'IRPF e INSS'!$D$7,IF(C12&lt;='IRPF e INSS'!$C$8,C12*'IRPF e INSS'!$D$8,IF(C12&lt;='IRPF e INSS'!$C$9,C12*'IRPF e INSS'!$D$9,IF(C12&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
         <v>67.2</v>
       </c>
-      <c r="F12" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
+      <c r="F12" s="7">
+        <f>IF(C12-E12&lt;='IRPF e INSS'!$G$7,0,IF(C12-E12&lt;='IRPF e INSS'!$G$8,(C12-E12)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C12-E12&lt;='IRPF e INSS'!$G$9,(C12-E12)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C12-E12&lt;='IRPF e INSS'!$G$10,(C12-E12)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C12-E12&gt;='IRPF e INSS'!$F$11,(C12-E12)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
         <v>117.6</v>
       </c>
-      <c r="G12" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
         <v>722.4</v>
       </c>
+      <c r="I12" s="7">
+        <f t="shared" si="3"/>
+        <v>1119.72</v>
+      </c>
+      <c r="J12" s="7">
+        <f>IF(I12-E12&lt;='IRPF e INSS'!$G$7,0,IF(I12-E12&lt;='IRPF e INSS'!$G$8,(I12-E12)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I12-E12&lt;='IRPF e INSS'!$G$9,(I12-E12)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I12-E12&lt;='IRPF e INSS'!$G$10,(I12-E12)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I12-E12&gt;='IRPF e INSS'!$F$11,(I12-E12)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E12</f>
+        <v>3.3389999999999844</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
@@ -3430,23 +4931,35 @@
         <v>910</v>
       </c>
       <c r="D13" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
+        <f t="shared" si="0"/>
         <v>54.6</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>81.899999999999991</v>
-      </c>
-      <c r="F13" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>136.5</v>
+        <f>IF(C13&lt;='IRPF e INSS'!$C$7,C13*'IRPF e INSS'!$D$7,IF(C13&lt;='IRPF e INSS'!$C$8,C13*'IRPF e INSS'!$D$8,IF(C13&lt;='IRPF e INSS'!$C$9,C13*'IRPF e INSS'!$D$9,IF(C13&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>72.8</v>
+      </c>
+      <c r="F13" s="7">
+        <f>IF(C13-E13&lt;='IRPF e INSS'!$G$7,0,IF(C13-E13&lt;='IRPF e INSS'!$G$8,(C13-E13)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C13-E13&lt;='IRPF e INSS'!$G$9,(C13-E13)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C13-E13&lt;='IRPF e INSS'!$G$10,(C13-E13)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C13-E13&gt;='IRPF e INSS'!$F$11,(C13-E13)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>773.5</v>
+        <f t="shared" si="1"/>
+        <v>127.4</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>782.6</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>1213.03</v>
+      </c>
+      <c r="J13" s="7">
+        <f>IF(I13-E13&lt;='IRPF e INSS'!$G$7,0,IF(I13-E13&lt;='IRPF e INSS'!$G$8,(I13-E13)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I13-E13&lt;='IRPF e INSS'!$G$9,(I13-E13)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I13-E13&lt;='IRPF e INSS'!$G$10,(I13-E13)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I13-E13&gt;='IRPF e INSS'!$F$11,(I13-E13)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E13</f>
+        <v>15.51724999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -3457,23 +4970,35 @@
         <v>965</v>
       </c>
       <c r="D14" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
+        <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>86.85</v>
-      </c>
-      <c r="F14" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>144.75</v>
+        <f>IF(C14&lt;='IRPF e INSS'!$C$7,C14*'IRPF e INSS'!$D$7,IF(C14&lt;='IRPF e INSS'!$C$8,C14*'IRPF e INSS'!$D$8,IF(C14&lt;='IRPF e INSS'!$C$9,C14*'IRPF e INSS'!$D$9,IF(C14&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>77.2</v>
+      </c>
+      <c r="F14" s="7">
+        <f>IF(C14-E14&lt;='IRPF e INSS'!$G$7,0,IF(C14-E14&lt;='IRPF e INSS'!$G$8,(C14-E14)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C14-E14&lt;='IRPF e INSS'!$G$9,(C14-E14)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C14-E14&lt;='IRPF e INSS'!$G$10,(C14-E14)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C14-E14&gt;='IRPF e INSS'!$F$11,(C14-E14)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>820.25</v>
+        <f t="shared" si="1"/>
+        <v>135.1</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>829.9</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
+        <v>1286.345</v>
+      </c>
+      <c r="J14" s="7">
+        <f>IF(I14-E14&lt;='IRPF e INSS'!$G$7,0,IF(I14-E14&lt;='IRPF e INSS'!$G$8,(I14-E14)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I14-E14&lt;='IRPF e INSS'!$G$9,(I14-E14)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I14-E14&lt;='IRPF e INSS'!$G$10,(I14-E14)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I14-E14&gt;='IRPF e INSS'!$F$11,(I14-E14)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E14</f>
+        <v>25.085874999999987</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -3481,48 +5006,72 @@
         <v>13</v>
       </c>
       <c r="C15" s="6">
-        <v>920</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="7">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
-        <v>55.199999999999996</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>82.8</v>
-      </c>
-      <c r="F15" s="6">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
-        <v>138</v>
+        <f>IF(C15&lt;='IRPF e INSS'!$C$7,C15*'IRPF e INSS'!$D$7,IF(C15&lt;='IRPF e INSS'!$C$8,C15*'IRPF e INSS'!$D$8,IF(C15&lt;='IRPF e INSS'!$C$9,C15*'IRPF e INSS'!$D$9,IF(C15&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
+        <v>1171.8399999999999</v>
+      </c>
+      <c r="F15" s="7">
+        <f>IF(C15-E15&lt;='IRPF e INSS'!$G$7,0,IF(C15-E15&lt;='IRPF e INSS'!$G$8,(C15-E15)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C15-E15&lt;='IRPF e INSS'!$G$9,(C15-E15)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C15-E15&lt;='IRPF e INSS'!$G$10,(C15-E15)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C15-E15&gt;='IRPF e INSS'!$F$11,(C15-E15)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
+        <v>1558.384</v>
       </c>
       <c r="G15" s="6">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
-        <v>782</v>
+        <f t="shared" si="1"/>
+        <v>3230.2240000000002</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>6769.7759999999998</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="3"/>
+        <v>13330</v>
+      </c>
+      <c r="J15" s="7">
+        <f>IF(I15-E15&lt;='IRPF e INSS'!$G$7,0,IF(I15-E15&lt;='IRPF e INSS'!$G$8,(I15-E15)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I15-E15&lt;='IRPF e INSS'!$G$9,(I15-E15)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I15-E15&lt;='IRPF e INSS'!$G$10,(I15-E15)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I15-E15&gt;='IRPF e INSS'!$F$11,(I15-E15)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E15</f>
+        <v>3645.9740000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]*$C$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="9">
-        <f>IF(C16&lt;=$B$5,C16*$C$5,C16*$C$6)</f>
+      <c r="E16" s="7">
+        <f>IF(C16&lt;='IRPF e INSS'!$C$7,C16*'IRPF e INSS'!$D$7,IF(C16&lt;='IRPF e INSS'!$C$8,C16*'IRPF e INSS'!$D$8,IF(C16&lt;='IRPF e INSS'!$C$9,C16*'IRPF e INSS'!$D$9,IF(C16&gt;'IRPF e INSS'!$CD$10,'IRPF e INSS'!$D$10,0))))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="10">
-        <f>Table5[[#This Row],[VALE TRANSPORTE]]+Table5[[#This Row],[INSS]]</f>
+      <c r="F16" s="7">
+        <f>IF(C16-E16&lt;='IRPF e INSS'!$G$7,0,IF(C16-E16&lt;='IRPF e INSS'!$G$8,(C16-E16)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(C16-E16&lt;='IRPF e INSS'!$G$9,(C16-E16)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(C16-E16&lt;='IRPF e INSS'!$G$10,(C16-E16)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(C16-E16&gt;='IRPF e INSS'!$F$11,(C16-E16)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))</f>
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <f>Table5[[#This Row],[SALÁRIO BRUTO]]-Table5[[#This Row],[TOTAL DE DESCONTOS]]</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>IF(I16-E16&lt;='IRPF e INSS'!$G$7,0,IF(I16-E16&lt;='IRPF e INSS'!$G$8,(I16-E16)*'IRPF e INSS'!$H$8-'IRPF e INSS'!$I$8,IF(I16-E16&lt;='IRPF e INSS'!$G$9,(I16-E16)*'IRPF e INSS'!$H$9-'IRPF e INSS'!$I$9,IF(I16-E16&lt;='IRPF e INSS'!$G$10,(I16-E16)*'IRPF e INSS'!$H$10-'IRPF e INSS'!$I$10,IF(I16-E16&gt;='IRPF e INSS'!$F$11,(I16-E16)*'IRPF e INSS'!$H$11-'IRPF e INSS'!$I$11,"")))))+E16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -3530,7 +5079,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3538,529 +5087,529 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -4071,9 +5620,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>Cadastro!$B$8:$B$30</xm:f>
+            <xm:f>'Cadastro Deptos'!$B$8:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>B9:B16</xm:sqref>
         </x14:dataValidation>
@@ -4087,38 +5636,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C1B8FA-C003-4BFD-B2AC-EED598E56156}">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.09765625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="3.09765625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="2" max="2" width="11" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="13"/>
+    <col min="6" max="9" width="13.625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" s="34" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" s="24" customFormat="1" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:15" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -4132,7 +5705,403 @@
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="27">
+        <v>954</v>
+      </c>
+      <c r="C7" s="27">
+        <v>1693.72</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="27">
+        <v>1903.98</v>
+      </c>
+      <c r="G7" s="27">
+        <v>954</v>
+      </c>
+      <c r="H7" s="28">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="27">
+        <v>1693.73</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2822.9</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.09</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="27">
+        <v>1903.98</v>
+      </c>
+      <c r="G8" s="27">
+        <v>2826.65</v>
+      </c>
+      <c r="H8" s="28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I8" s="27">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="27">
+        <v>2822.91</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5645.8</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.11</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="27">
+        <v>2826.65</v>
+      </c>
+      <c r="G9" s="27">
+        <v>3751.05</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="I9" s="27">
+        <v>354.8</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27">
+        <v>5645.81</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1171.8399999999999</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="27">
+        <v>3751.05</v>
+      </c>
+      <c r="G10" s="27">
+        <v>4664.68</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I10" s="27">
+        <v>636.13</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="27">
+        <v>4664.6899999999996</v>
+      </c>
+      <c r="G11" s="27">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I11" s="27">
+        <v>869.36</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="22" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="34" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:15" s="24" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4148,7 +6117,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4165,10 +6134,10 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="26" t="s">
-        <v>26</v>
+      <c r="B7" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -4184,9 +6153,9 @@
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="14"/>
@@ -4203,9 +6172,9 @@
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="14"/>
@@ -4222,9 +6191,9 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="14"/>
@@ -4241,9 +6210,9 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="14"/>
@@ -4251,7 +6220,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
@@ -4260,9 +6229,9 @@
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="12"/>
@@ -4279,9 +6248,9 @@
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="12"/>
@@ -4298,11 +6267,9 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="22"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4317,9 +6284,9 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4334,7 +6301,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -4351,7 +6318,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -4368,7 +6335,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -4385,7 +6352,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4402,7 +6369,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4419,7 +6386,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -4436,7 +6403,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -4453,7 +6420,7 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -4470,7 +6437,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -4487,7 +6454,7 @@
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -4504,7 +6471,7 @@
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4521,7 +6488,7 @@
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4538,7 +6505,7 @@
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4555,10 +6522,10 @@
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="32" spans="1:15" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:15" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
@@ -4569,30 +6536,204 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="29" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="33" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="1:1" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="22" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0F66FD-187A-4A4E-8BA7-1B46EF98B358}">
+  <dimension ref="A1:L128"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>